--- a/气体热导率的测量/res/physical.xlsx
+++ b/气体热导率的测量/res/physical.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,12 +49,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,9 +66,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,15 +108,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,29 +118,23 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +163,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -165,7 +189,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,37 +204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,187 +219,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +410,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,6 +433,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,45 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -517,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,141 +530,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1020,13 +1024,13 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8727272727273" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1064,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="C2" s="1">
-        <v>53.3</v>
+        <v>53.8</v>
       </c>
       <c r="H2" s="1">
-        <v>22.9</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1078,13 +1082,13 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <v>9.01</v>
+        <v>8.78</v>
       </c>
       <c r="C3" s="1">
-        <v>89.2</v>
+        <v>87.7</v>
       </c>
       <c r="H3" s="1">
-        <v>22.8</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1092,13 +1096,13 @@
         <v>0.15</v>
       </c>
       <c r="B4" s="1">
-        <v>9.84</v>
+        <v>9.61</v>
       </c>
       <c r="C4" s="1">
-        <v>97.4</v>
+        <v>95.8</v>
       </c>
       <c r="H4" s="1">
-        <v>23.2</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1106,13 +1110,13 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>10.39</v>
+        <v>10.37</v>
       </c>
       <c r="C5" s="1">
-        <v>102.8</v>
+        <v>103.4</v>
       </c>
       <c r="H5" s="1">
-        <v>23.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1120,13 +1124,13 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="1">
-        <v>10.91</v>
+        <v>10.86</v>
       </c>
       <c r="C6" s="1">
-        <v>107.9</v>
+        <v>109.3</v>
       </c>
       <c r="H6" s="2">
-        <v>24</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1134,13 +1138,13 @@
         <v>0.3</v>
       </c>
       <c r="B7" s="1">
-        <v>11.38</v>
+        <v>11.24</v>
       </c>
       <c r="C7" s="1">
-        <v>112.5</v>
+        <v>112.1</v>
       </c>
       <c r="H7" s="1">
-        <v>24.2</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1148,13 +1152,13 @@
         <v>0.35</v>
       </c>
       <c r="B8" s="1">
-        <v>11.71</v>
+        <v>11.58</v>
       </c>
       <c r="C8" s="1">
-        <v>115.8</v>
+        <v>115.5</v>
       </c>
       <c r="H8" s="1">
-        <v>24.5</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1162,13 +1166,13 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="1">
-        <v>11.98</v>
+        <v>11.95</v>
       </c>
       <c r="C9" s="1">
-        <v>118.5</v>
+        <v>119.2</v>
       </c>
       <c r="H9" s="1">
-        <v>25.1</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1176,13 +1180,13 @@
         <v>0.45</v>
       </c>
       <c r="B10" s="1">
-        <v>12.23</v>
+        <v>12.21</v>
       </c>
       <c r="C10" s="1">
-        <v>120.9</v>
+        <v>121.7</v>
       </c>
       <c r="H10" s="1">
-        <v>25.7</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1190,13 +1194,13 @@
         <v>0.5</v>
       </c>
       <c r="B11" s="1">
-        <v>12.45</v>
+        <v>12.43</v>
       </c>
       <c r="C11" s="1">
-        <v>123.1</v>
+        <v>123.9</v>
       </c>
       <c r="H11" s="1">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1204,13 +1208,13 @@
         <v>0.55</v>
       </c>
       <c r="B12" s="1">
-        <v>12.69</v>
+        <v>12.64</v>
       </c>
       <c r="C12" s="1">
-        <v>125.4</v>
+        <v>126.1</v>
       </c>
       <c r="H12" s="1">
-        <v>26.5</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1221,10 +1225,10 @@
         <v>12.86</v>
       </c>
       <c r="C13" s="1">
-        <v>127.1</v>
+        <v>128.2</v>
       </c>
       <c r="H13" s="1">
-        <v>26.8</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1232,13 +1236,13 @@
         <v>0.65</v>
       </c>
       <c r="B14" s="1">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="C14" s="1">
-        <v>128.6</v>
+        <v>129.8</v>
       </c>
       <c r="H14" s="1">
-        <v>27.3</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1246,27 +1250,27 @@
         <v>0.7</v>
       </c>
       <c r="B15" s="1">
-        <v>13.15</v>
+        <v>13.17</v>
       </c>
       <c r="C15" s="2">
-        <v>130</v>
+        <v>131.3</v>
       </c>
       <c r="H15" s="1">
-        <v>27.7</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>0.75</v>
       </c>
-      <c r="B16" s="1">
-        <v>13.28</v>
+      <c r="B16" s="3">
+        <v>13.3</v>
       </c>
       <c r="C16" s="1">
-        <v>131.3</v>
+        <v>132.6</v>
       </c>
       <c r="H16" s="1">
-        <v>27.9</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1274,13 +1278,13 @@
         <v>0.8</v>
       </c>
       <c r="B17" s="1">
-        <v>13.42</v>
+        <v>13.45</v>
       </c>
       <c r="C17" s="1">
-        <v>132.7</v>
+        <v>133.1</v>
       </c>
       <c r="H17" s="1">
-        <v>28.3</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1288,13 +1292,13 @@
         <v>0.85</v>
       </c>
       <c r="B18" s="1">
-        <v>13.53</v>
+        <v>13.57</v>
       </c>
       <c r="C18" s="1">
-        <v>133.8</v>
+        <v>135.3</v>
       </c>
       <c r="H18" s="1">
-        <v>28.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1302,27 +1306,27 @@
         <v>0.9</v>
       </c>
       <c r="B19" s="1">
-        <v>13.63</v>
+        <v>13.67</v>
       </c>
       <c r="C19" s="1">
-        <v>134.7</v>
+        <v>136.3</v>
       </c>
       <c r="H19" s="1">
-        <v>28.8</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>0.95</v>
       </c>
-      <c r="B20" s="1">
-        <v>13.73</v>
+      <c r="B20" s="3">
+        <v>13.8</v>
       </c>
       <c r="C20" s="1">
-        <v>135.7</v>
+        <v>137.6</v>
       </c>
       <c r="H20" s="1">
-        <v>29.1</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1330,13 +1334,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>13.81</v>
+        <v>13.89</v>
       </c>
       <c r="C21" s="1">
-        <v>136.5</v>
+        <v>138.4</v>
       </c>
       <c r="H21" s="1">
-        <v>29.2</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1359,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1372,7 +1376,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
